--- a/retrieval_results_v3_output.xlsx
+++ b/retrieval_results_v3_output.xlsx
@@ -1,46 +1,651 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pcode\LLM4VIS\llmscivis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601F59E2-D1E4-453D-8D6B-4BC96E4927DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28898" yWindow="-1493" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="第二期实验数据" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Benchmark prompt</t>
+  </si>
+  <si>
+    <t>ground_truth</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>evaluator</t>
+  </si>
+  <si>
+    <t>IO-Filter-Rendering\cutter\rotor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate an HTML page using vtk.js to visualize the rotor dataset._x000D_
+_x000D_
+- Load the dataset from: http://127.0.0.1:5000/dataset/rotor.vti_x000D_
+- Set the active scalar array to "Pressure"._x000D_
+- Apply a slice along the Y axis at 95% depth of the dataset (convert percentage to slice index)._x000D_
+- Use a blue → white → red color map for pressure values, spanning from the minimum to maximum scalar range._x000D_
+- Set opacity to fully opaque (no transparency variation)._x000D_
+- Add an orientation marker with XYZ axes in the bottom-right corner._x000D_
+- No interactive GUI controls are required._x000D_
+</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;_x000D_
+&lt;html lang="en"&gt;_x000D_
+_x000D_
+&lt;head&gt;_x000D_
+&lt;meta charset="UTF-8"&gt;_x000D_
+&lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;_x000D_
+&lt;title&gt;Rotor Dataset Cutting Rendering&lt;/title&gt;_x000D_
+&lt;style&gt;_x000D_
+body,_x000D_
+html {_x000D_
+margin: 0;_x000D_
+padding: 0;_x000D_
+width: 100%;_x000D_
+height: 100%;_x000D_
+overflow: hidden;_x000D_
+}_x000D_
+_x000D_
+#renderer {_x000D_
+width: 100%;_x000D_
+height: 100%;_x000D_
+}_x000D_
+&lt;/style&gt;_x000D_
+&lt;/head&gt;_x000D_
+_x000D_
+&lt;body&gt;_x000D_
+&lt;div id="renderer"&gt;&lt;/div&gt;_x000D_
+&lt;script src="https://unpkg.com/vtk.js@34.10.0/vtk.js"&gt;&lt;/script&gt;_x000D_
+&lt;script&gt;_x000D_
+const vtkFullScreenRenderWindow = vtk.Rendering.Misc.vtkFullScreenRenderWindow;_x000D_
+const vtkActor = vtk.Rendering.Core.vtkActor;_x000D_
+const vtkMapper = vtk.Rendering.Core.vtkMapper;_x000D_
+const vtkXMLImageDataReader = vtk.IO.XML.vtkXMLImageDataReader;_x000D_
+const vtkPlane = vtk.Common.DataModel.vtkPlane;_x000D_
+const vtkColorTransferFunction = vtk.Rendering.Core.vtkColorTransferFunction;_x000D_
+_x000D_
+const fullScreenRenderWindow = vtkFullScreenRenderWindow.newInstance({_x000D_
+background: [1, 1, 1],_x000D_
+});_x000D_
+const renderWindow = fullScreenRenderWindow.getRenderWindow();_x000D_
+const renderer = fullScreenRenderWindow.getRenderer();_x000D_
+_x000D_
+const reader = vtkXMLImageDataReader.newInstance();_x000D_
+reader.setUrl('http://127.0.0.1:5000/dataset/rotor_simplified.vti').then(() =&gt; {_x000D_
+reader.loadData().then(() =&gt; {_x000D_
+const imageData = reader.getOutputData(0);_x000D_
+imageData.getPointData().setActiveScalars('Pressure');_x000D_
+_x000D_
+const vtkImageSlice = vtk.Rendering.Core.vtkImageSlice;_x000D_
+const vtkImageMapper = vtk.Rendering.Core.vtkImageMapper;_x000D_
+_x000D_
+const imageMapper = vtkImageMapper.newInstance();_x000D_
+imageMapper.setInputData(imageData);_x000D_
+const dims = imageData.getDimensions();_x000D_
+imageMapper.setSlice(dims[1] * 0.95);_x000D_
+imageMapper.setSlicingMode(1); //(0:X, 1:Y, 2:Z)_x000D_
+_x000D_
+const pressureArray = imageData.getPointData().getArrayByName('Pressure');_x000D_
+const [pMin, pMax] = pressureArray.getRange();_x000D_
+const colorTransferFunction = vtkColorTransferFunction.newInstance();_x000D_
+colorTransferFunction.addRGBPoint(pMin, 0.0, 0.0, 0.8);_x000D_
+colorTransferFunction.addRGBPoint((pMin + pMax) / 2, 1.0, 1.0, 1.0);_x000D_
+colorTransferFunction.addRGBPoint(pMax, 0.8, 0.0, 0.0);_x000D_
+_x000D_
+// Add opacity transfer function_x000D_
+const vtkPiecewiseFunction = vtk.Common.DataModel.vtkPiecewiseFunction;_x000D_
+const opacityFunction = vtkPiecewiseFunction.newInstance();_x000D_
+opacityFunction.addPoint(pMin, 1.0);_x000D_
+opacityFunction.addPoint(pMax, 1.0);_x000D_
+_x000D_
+const imageSlice = vtkImageSlice.newInstance();_x000D_
+imageSlice.setMapper(imageMapper);_x000D_
+imageSlice.getProperty().setRGBTransferFunction(0, colorTransferFunction);_x000D_
+imageSlice.getProperty().setPiecewiseFunction(0, opacityFunction); // Set opacity function_x000D_
+imageSlice.getProperty().setScalarOpacity(0, opacityFunction); // Set scalar opacity_x000D_
+imageSlice.getProperty().setUseLookupTableScalarRange(true);_x000D_
+_x000D_
+renderer.addActor(imageSlice);_x000D_
+_x000D_
+const axes = vtk.Rendering.Core.vtkAxesActor.newInstance();_x000D_
+const widget = vtk.Interaction.Widgets.vtkOrientationMarkerWidget.newInstance({_x000D_
+actor: axes,_x000D_
+interactor: renderWindow.getInteractor(),_x000D_
+});_x000D_
+widget.setEnabled(true);_x000D_
+widget.setViewportCorner(_x000D_
+vtk.Interaction.Widgets.vtkOrientationMarkerWidget.Corners.BOTTOM_RIGHT_x000D_
+);_x000D_
+widget.setViewportSize(0.15);_x000D_
+_x000D_
+renderer.resetCamera();_x000D_
+renderer.resetCameraClippingRange();_x000D_
+renderWindow.render();_x000D_
+});_x000D_
+});_x000D_
+&lt;/script&gt;_x000D_
+&lt;/body&gt;_x000D_
+_x000D_
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>gpt-5</t>
+  </si>
+  <si>
+    <t>qwen3-max</t>
+  </si>
+  <si>
+    <t>IO-Filter-Rendering\isosurface\deepwater</t>
+  </si>
+  <si>
+    <t>Generate an HTML page using vtk.js to visualize the Deepwater dataset with isosurface rendering._x000D_
+_x000D_
+Load the dataset from: http://127.0.0.1:5000/dataset/deepwater.vti_x000D_
+_x000D_
+Compute velocity magnitude from arrays v02 and v03; if not available, use prs as the scalar_x000D_
+_x000D_
+Generate an isosurface at the mid-value of the scalar range_x000D_
+_x000D_
+Use a blue → white → red color map spanning the scalar range (min to max)_x000D_
+_x000D_
+Set the isosurface to fully opaque with smooth shading_x000D_
+_x000D_
+Add an XYZ orientation marker in the bottom-right corner</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;_x000D_
+&lt;html lang="en"&gt;_x000D_
+_x000D_
+&lt;head&gt;_x000D_
+&lt;meta charset="UTF-8"&gt;_x000D_
+&lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;_x000D_
+&lt;title&gt;Isosurface Rendering for Deepwater Dataset&lt;/title&gt;_x000D_
+&lt;style&gt;_x000D_
+body,_x000D_
+html {_x000D_
+margin: 0;_x000D_
+padding: 0;_x000D_
+width: 100%;_x000D_
+height: 100%;_x000D_
+overflow: hidden;_x000D_
+}_x000D_
+_x000D_
+#renderer {_x000D_
+width: 100%;_x000D_
+height: 100%;_x000D_
+}_x000D_
+&lt;/style&gt;_x000D_
+&lt;/head&gt;_x000D_
+_x000D_
+&lt;body&gt;_x000D_
+&lt;div id="renderer"&gt;&lt;/div&gt;_x000D_
+&lt;script src="https://unpkg.com/vtk.js"&gt;&lt;/script&gt;_x000D_
+&lt;script&gt;_x000D_
+const vtkFullScreenRenderWindow = vtk.Rendering.Misc.vtkFullScreenRenderWindow;_x000D_
+const vtkActor = vtk.Rendering.Core.vtkActor;_x000D_
+const vtkMapper = vtk.Rendering.Core.vtkMapper;_x000D_
+const vtkXMLImageDataReader = vtk.IO.XML.vtkXMLImageDataReader;_x000D_
+const vtkColorTransferFunction = vtk.Rendering.Core.vtkColorTransferFunction;_x000D_
+const vtkImageMarchingCubes = vtk.Filters.General.vtkImageMarchingCubes;_x000D_
+_x000D_
+const fullScreenRenderWindow = vtkFullScreenRenderWindow.newInstance({_x000D_
+background: [1,1,1],_x000D_
+});_x000D_
+const renderWindow = fullScreenRenderWindow.getRenderWindow();_x000D_
+const renderer = fullScreenRenderWindow.getRenderer();_x000D_
+_x000D_
+const reader = vtkXMLImageDataReader.newInstance();_x000D_
+reader.setUrl('http://127.0.0.1:5000/dataset/deepwater.vti').then(() =&gt; {_x000D_
+reader.loadData().then(() =&gt; {_x000D_
+const imageData = reader.getOutputData(0);_x000D_
+_x000D_
+// Output array names in the dataset to help with debugging_x000D_
+// Fix: getArrayNames is not a function, use getArrays() to get the array list_x000D_
+const arrays = imageData.getPointData().getArrays();_x000D_
+const arrayNames = arrays.map(array =&gt; array.getName());_x000D_
+console.log('Arrays in dataset:', arrayNames);_x000D_
+_x000D_
+// Use v02 and v03 arrays to calculate velocity magnitude_x000D_
+const v02Array = imageData.getPointData().getArrayByName('v02');_x000D_
+const v03Array = imageData.getPointData().getArrayByName('v03');_x000D_
+_x000D_
+if (!v02Array || !v03Array) {_x000D_
+console.error('Cannot find v02 or v03 arrays');_x000D_
+// Try to use another available array_x000D_
+const availableArray = imageData.getPointData().getArrayByName('prs');_x000D_
+if (availableArray) {_x000D_
+// Directly use pressure (prs) array as scalar field_x000D_
+imageData.getPointData().setActiveScalars('prs');_x000D_
+} else {_x000D_
+console.error('Unable to find suitable array for rendering');_x000D_
+return;_x000D_
+}_x000D_
+} else {_x000D_
+// Calculate velocity magnitude_x000D_
+const numPoints = imageData.getNumberOfPoints();_x000D_
+const magnitudeData = new Float64Array(numPoints);_x000D_
+_x000D_
+for (let i = 0; i &lt; numPoints; i++) {_x000D_
+// v02 and v03 are scalar arrays, directly get values_x000D_
+const v2 = v02Array.getData()[i];_x000D_
+const v3 = v03Array.getData()[i];_x000D_
+// Calculate velocity magnitude_x000D_
+magnitudeData[i] = Math.sqrt(v2 * v2 + v3 * v3);_x000D_
+}_x000D_
+_x000D_
+// Create velocity magnitude array_x000D_
+const vtkDataArray = vtk.Common.Core.vtkDataArray;_x000D_
+const magnitudeVtkArray = vtkDataArray.newInstance({_x000D_
+numberOfComponents: 1,_x000D_
+values: magnitudeData,_x000D_
+name: 'velocityMagnitude',_x000D_
+});_x000D_
+imageData.getPointData().addArray(magnitudeVtkArray);_x000D_
+imageData.getPointData().setActiveScalars('velocityMagnitude');_x000D_
+}_x000D_
+_x000D_
+// Get range of current active scalar_x000D_
+const activeScalars = imageData.getPointData().getScalars();_x000D_
+const newRange = activeScalars.getRange();_x000D_
+const [minV, maxV] = newRange;_x000D_
+_x000D_
+console.log('Using scalar field:', activeScalars.getName());_x000D_
+console.log('Data range:', newRange);_x000D_
+_x000D_
+const marchingCube = vtkImageMarchingCubes.newInstance({_x000D_
+contourValue: minV + 0.5 * (maxV - minV),_x000D_
+computeNormals: true,_x000D_
+mergePoints: true_x000D_
+});_x000D_
+_x000D_
+marchingCube.setInputData(imageData);_x000D_
+_x000D_
+const mapper = vtkMapper.newInstance();_x000D_
+mapper.setInputConnection(marchingCube.getOutputPort());_x000D_
+_x000D_
+const colorTransferFunction = vtkColorTransferFunction.newInstance();_x000D_
+colorTransferFunction.addRGBPoint(minV, 0.0, 0.0, 1.0);_x000D_
+colorTransferFunction.addRGBPoint(minV + 0.25 * (maxV - minV), 0.0, 0.5, 1.0);_x000D_
+colorTransferFunction.addRGBPoint(minV + 0.5 * (maxV - minV), 1.0, 1.0, 1.0);_x000D_
+colorTransferFunction.addRGBPoint(minV + 0.75 * (maxV - minV), 1.0, 0.5, 0.0);_x000D_
+colorTransferFunction.addRGBPoint(maxV, 1.0, 0.0, 0.0);_x000D_
+_x000D_
+mapper.setLookupTable(colorTransferFunction);_x000D_
+mapper.setScalarRange(minV, maxV);_x000D_
+mapper.setInterpolateScalarsBeforeMapping(true);_x000D_
+_x000D_
+const actor = vtkActor.newInstance();_x000D_
+actor.setMapper(mapper);_x000D_
+actor.getProperty().setRepresentationToSurface();_x000D_
+actor.getProperty().setEdgeVisibility(false);_x000D_
+actor.getProperty().setOpacity(1.0);_x000D_
+actor.getProperty().setAmbient(0.3);_x000D_
+actor.getProperty().setDiffuse(0.7);_x000D_
+actor.getProperty().setSpecular(0.4);_x000D_
+_x000D_
+renderer.addActor(actor);_x000D_
+_x000D_
+const bounds = imageData.getBounds();_x000D_
+const center = [_x000D_
+(bounds[0] + bounds[1]) / 2,_x000D_
+(bounds[2] + bounds[3]) / 2,_x000D_
+(bounds[4] + bounds[5]) / 2,_x000D_
+];_x000D_
+_x000D_
+const camera = renderer.getActiveCamera();_x000D_
+camera.setFocalPoint(...center);_x000D_
+camera.setPosition(center[0] + 300, center[1] + 200, center[2] + 200);_x000D_
+camera.setViewUp(0, 0, 1);_x000D_
+renderer.resetCameraClippingRange();_x000D_
+renderWindow.render();_x000D_
+renderer.resetCamera();_x000D_
+renderWindow.render();_x000D_
+_x000D_
+const axes = vtk.Rendering.Core.vtkAxesActor.newInstance();_x000D_
+const widget = vtk.Interaction.Widgets.vtkOrientationMarkerWidget.newInstance({_x000D_
+actor: axes,_x000D_
+interactor: renderWindow.getInteractor(),_x000D_
+});_x000D_
+widget.setEnabled(true);_x000D_
+widget.setViewportCorner(_x000D_
+vtk.Interaction.Widgets.vtkOrientationMarkerWidget.Corners.BOTTOM_RIGHT_x000D_
+);_x000D_
+widget.setViewportSize(0.15);_x000D_
+widget.setMinPixelSize(100);_x000D_
+widget.setMaxPixelSize(300);_x000D_
+_x000D_
+const interactor = renderWindow.getInteractor();_x000D_
+interactor.start();_x000D_
+});_x000D_
+});_x000D_
+&lt;/script&gt;_x000D_
+&lt;/body&gt;_x000D_
+_x000D_
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>IO-Filter-Rendering\streamtracing\isabel</t>
+  </si>
+  <si>
+    <t>Generate an HTML page using vtk.js to visualize the Isabel dataset with streamline rendering._x000D_
+_x000D_
+Load the dataset from: http://127.0.0.1:5000/dataset/isabel.vti_x000D_
+_x000D_
+Use the "Velocity" array as the vector field for streamlines_x000D_
+_x000D_
+Generate seed points at the center of the dataset with sufficient density to cover the domain_x000D_
+_x000D_
+Compute streamlines following the velocity field_x000D_
+_x000D_
+Render streamlines in cyan ([0, 1, 1]) with a specified line width_x000D_
+_x000D_
+Render a dataset outline in red ([1, 0, 0]) with a specified line width</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;_x000D_
+&lt;html lang="en"&gt;_x000D_
+_x000D_
+&lt;head&gt;_x000D_
+&lt;meta charset="UTF-8"&gt;_x000D_
+&lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;_x000D_
+&lt;title&gt;Isosurface Rendering for Isabel Dataset&lt;/title&gt;_x000D_
+&lt;/head&gt;_x000D_
+_x000D_
+&lt;body&gt;_x000D_
+&lt;!-- Renderer container --&gt;_x000D_
+&lt;div id="renderer"&gt;&lt;/div&gt;_x000D_
+&lt;!-- Load VTK.js library --&gt;_x000D_
+&lt;script src="https://unpkg.com/vtk.js"&gt;&lt;/script&gt;_x000D_
+&lt;script&gt;_x000D_
+// Import required VTK.js classes_x000D_
+const vtkFullScreenRenderWindow = vtk.Rendering.Misc.vtkFullScreenRenderWindow;_x000D_
+const vtkActor = vtk.Rendering.Core.vtkActor;_x000D_
+const vtkMapper = vtk.Rendering.Core.vtkMapper;_x000D_
+const vtkXMLImageDataReader = vtk.IO.XML.vtkXMLImageDataReader;_x000D_
+const vtkColorTransferFunction = vtk.Rendering.Core.vtkColorTransferFunction;_x000D_
+const vtkImageMarchingCubes = vtk.Filters.General.vtkImageMarchingCubes;_x000D_
+_x000D_
+// Initialize render window, set background color to black_x000D_
+const fullScreenRenderWindow = vtkFullScreenRenderWindow.newInstance({_x000D_
+background: [0.1, 0.1, 0.1],_x000D_
+});_x000D_
+const renderWindow = fullScreenRenderWindow.getRenderWindow();_x000D_
+const renderer = fullScreenRenderWindow.getRenderer();_x000D_
+_x000D_
+// Create XML image data reader instance_x000D_
+const reader = vtkXMLImageDataReader.newInstance();_x000D_
+_x000D_
+// Set data file URL and load data_x000D_
+reader.setUrl('..\\..\\..\\vtkjs-benchmark-datasets\\isabel.vti').then(() =&gt; {_x000D_
+// After data URL is set successfully, load data_x000D_
+reader.loadData().then(() =&gt; {_x000D_
+// Get loaded image data_x000D_
+const imageData = reader.getOutputData(0);_x000D_
+_x000D_
+// Get velocity vector field from data_x000D_
+const velocityArray = imageData.getPointData().getArrayByName('Velocity');_x000D_
+// Get total number of data points_x000D_
+const numPoints = imageData.getNumberOfPoints();_x000D_
+// Create new array to store velocity magnitude_x000D_
+const magnitudeData = new Float64Array(numPoints);_x000D_
+_x000D_
+// Calculate velocity magnitude (norm of velocity vector) for each point_x000D_
+for (let i = 0; i &lt; numPoints; i++) {_x000D_
+// Get three components of velocity_x000D_
+const vx = velocityArray.getData()[3 * i + 0]; // x component_x000D_
+const vy = velocityArray.getData()[3 * i + 1]; // y component_x000D_
+const vz = velocityArray.getData()[3 * i + 2]; // z component_x000D_
+// Calculate velocity magnitude (Euclidean norm)_x000D_
+magnitudeData[i] = Math.sqrt(vx * vx + vy * vy + vz * vz);_x000D_
+}_x000D_
+_x000D_
+// Create VTK data array class_x000D_
+const vtkDataArray = vtk.Common.Core.vtkDataArray;_x000D_
+// Create VTK array for velocity magnitude_x000D_
+const magnitudeVtkArray = vtkDataArray.newInstance({_x000D_
+numberOfComponents: 1, // Scalar data, only one component_x000D_
+values: magnitudeData, // Data values_x000D_
+name: 'velocityMagnitude', // Array name_x000D_
+});_x000D_
+imageData.getPointData().addArray(magnitudeVtkArray);_x000D_
+_x000D_
+imageData.getPointData().setActiveScalars('velocityMagnitude');_x000D_
+imageData.setSpacing(2.5, 2.5, 1.0);_x000D_
+_x000D_
+const newRange = magnitudeVtkArray.getRange();_x000D_
+console.log('Velocity magnitude range:', newRange);_x000D_
+const [minV, maxV] = newRange;_x000D_
+_x000D_
+const marchingCube = vtkImageMarchingCubes.newInstance({_x000D_
+contourValue: minV + 0.5 * (maxV - minV), // Set isosurface value to middle of data range_x000D_
+computeNormals: true, // Compute normals for lighting effects_x000D_
+mergePoints: true // Merge duplicate points to reduce data size_x000D_
+});_x000D_
+_x000D_
+marchingCube.setInputData(imageData);_x000D_
+_x000D_
+const mapper = vtkMapper.newInstance();_x000D_
+mapper.setInputConnection(marchingCube.getOutputPort());_x000D_
+_x000D_
+const actor = vtkActor.newInstance();_x000D_
+actor.setMapper(mapper);_x000D_
+renderer.addActor(actor);_x000D_
+const camera = renderer.getActiveCamera();_x000D_
+renderer.resetCameraClippingRange();_x000D_
+renderer.resetCamera();_x000D_
+renderWindow.render();_x000D_
+});_x000D_
+});_x000D_
+&lt;/script&gt;_x000D_
+&lt;/body&gt;_x000D_
+_x000D_
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>IO-Rendering\volume_rendering\redsea</t>
+  </si>
+  <si>
+    <t>Generate an HTML page using vtk.js to visualize the Redsea dataset with volume rendering._x000D_
+_x000D_
+Load the dataset from: http://127.0.0.1:5000/dataset/redsea.vti_x000D_
+_x000D_
+Compute velocity magnitude from the "velocity" array and set it as the active scalar_x000D_
+_x000D_
+Apply volume rendering using a blue → white → red color map spanning the scalar range (min to max)_x000D_
+_x000D_
+Apply a piecewise opacity function to control transparency across scalar values_x000D_
+_x000D_
+Set shading, ambient, diffuse, and specular properties for realistic volume appearance_x000D_
+_x000D_
+Adjust the camera to look along +Z and center on the dataset</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;_x000D_
+&lt;html lang="en"&gt;_x000D_
+_x000D_
+&lt;head&gt;_x000D_
+&lt;meta charset="UTF-8"&gt;_x000D_
+&lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;_x000D_
+&lt;title&gt;redsea Example&lt;/title&gt;_x000D_
+&lt;script src="https://unpkg.com/vtk.js"&gt;&lt;/script&gt;_x000D_
+&lt;/head&gt;_x000D_
+_x000D_
+&lt;body&gt;_x000D_
+&lt;div id="renderer"&gt;&lt;/div&gt;_x000D_
+&lt;!-- &lt;script src="https://unpkg.com/vtk.js"&gt;&lt;/script&gt; --&gt;_x000D_
+&lt;script&gt;_x000D_
+const vtkFullScreenRenderWindow = vtk.Rendering.Misc.vtkFullScreenRenderWindow;_x000D_
+const vtkVolume = vtk.Rendering.Core.vtkVolume;_x000D_
+const vtkVolumeMapper = vtk.Rendering.Core.vtkVolumeMapper;_x000D_
+_x000D_
+const vtkColorTransferFunction = vtk.Rendering.Core.vtkColorTransferFunction;_x000D_
+const vtkPiecewiseFunction = vtk.Common.DataModel.vtkPiecewiseFunction;_x000D_
+const vtkXMLImageDataReader = vtk.IO.XML.vtkXMLImageDataReader;_x000D_
+_x000D_
+//init the render window_x000D_
+const fullScreenRenderWindow = vtk.Rendering.Misc.vtkFullScreenRenderWindow.newInstance({_x000D_
+background: [1,1,1],_x000D_
+});_x000D_
+const renderWindow = fullScreenRenderWindow.getRenderWindow();_x000D_
+const renderer = fullScreenRenderWindow.getRenderer();_x000D_
+_x000D_
+_x000D_
+// Load dataset_x000D_
+const reader = vtkXMLImageDataReader.newInstance();_x000D_
+_x000D_
+_x000D_
+// set url and load the data_x000D_
+reader.setUrl('http://127.0.0.1:5000/dataset/redsea.vti').then(() =&gt; {_x000D_
+reader.loadData().then(() =&gt; {_x000D_
+//prepare dataset_x000D_
+const imageData = reader.getOutputData(0);_x000D_
+//set active scalar_x000D_
+const velocityArray = imageData.getPointData().getArrayByName('velocity');_x000D_
+const numPoints = imageData.getNumberOfPoints();_x000D_
+const magnitudeData = new Float64Array(numPoints);_x000D_
+for (let i = 0; i &lt; numPoints; i++) {_x000D_
+const vx = velocityArray.getData()[3 * i + 0];_x000D_
+const vy = velocityArray.getData()[3 * i + 1];_x000D_
+const vz = velocityArray.getData()[3 * i + 2];_x000D_
+magnitudeData[i] = Math.sqrt(vx * vx + vy * vy + vz * vz);_x000D_
+}_x000D_
+_x000D_
+const vtkDataArray = vtk.Common.Core.vtkDataArray;_x000D_
+const magnitudeVtkArray = vtkDataArray.newInstance({_x000D_
+numberOfComponents: 1,_x000D_
+values: magnitudeData,_x000D_
+name: 'velocityMagnitude',_x000D_
+});_x000D_
+imageData.getPointData().addArray(magnitudeVtkArray);_x000D_
+console.log(imageData.toJSON())_x000D_
+_x000D_
+_x000D_
+imageData.getPointData().setActiveScalars('velocityMagnitude');_x000D_
+imageData.setSpacing(0.05, 0.05, 0.1);_x000D_
+_x000D_
+console.log('New bounds:', imageData.getBounds());_x000D_
+console.log('Dimensions:', imageData.getDimensions());_x000D_
+console.log('Spacing:', imageData.getSpacing());_x000D_
+_x000D_
+const newRange = magnitudeVtkArray.getRange();_x000D_
+console.log('velocityMagnitude range:', newRange);_x000D_
+const [minV, maxV] = newRange;_x000D_
+_x000D_
+_x000D_
+console.log(imageData.getPointData().getScalars().getName());_x000D_
+_x000D_
+_x000D_
+//create the mapper and set its property_x000D_
+const mapper = vtkVolumeMapper.newInstance();_x000D_
+//console.log(data.toJSON())_x000D_
+mapper.setMaximumSamplesPerRay(4000); // or even higher, up to your hardware limits_x000D_
+mapper.setInputData(imageData);_x000D_
+mapper.setSampleDistance(0.1);_x000D_
+_x000D_
+//create actor and set its properties, including gradient opacity, scalar opacity, shade, ambient, diffuse, specular etc._x000D_
+const actor = vtkVolume.newInstance();_x000D_
+_x000D_
+// Move LocalAmbientOcclusion properties to actor's property_x000D_
+actor.getProperty().setLocalAmbientOcclusion(0);_x000D_
+actor.getProperty().setLAOKernelSize(10);_x000D_
+actor.getProperty().setLAOKernelRadius(5);_x000D_
+// Move ComputeNormalFromOpacity to actor's property_x000D_
+actor.getProperty().setComputeNormalFromOpacity(true);_x000D_
+_x000D_
+const cfun = vtkColorTransferFunction.newInstance();_x000D_
+cfun.addRGBPoint(minV, 0.0, 0.0, 1.0);_x000D_
+cfun.addRGBPoint((minV + maxV) * 0.5, 1.0, 1.0, 1.0);_x000D_
+cfun.addRGBPoint(maxV, 1.0, 0.0, 0.0);_x000D_
+actor.getProperty().setRGBTransferFunction(0, cfun);_x000D_
+_x000D_
+const ofun = vtkPiecewiseFunction.newInstance();_x000D_
+_x000D_
+ofun.addPoint(minV, 0.0);_x000D_
+ofun.addPoint(minV + 0.1 * (maxV - minV), 0.05);_x000D_
+ofun.addPoint(minV + 0.5 * (maxV - minV), 0.2);_x000D_
+ofun.addPoint(maxV, 1.0);_x000D_
+_x000D_
+actor.getProperty().setScalarOpacity(0, ofun);_x000D_
+actor.getProperty().setInterpolationTypeToLinear();_x000D_
+// this variable makes results lighter_x000D_
+actor.getProperty().setScalarOpacityUnitDistance(0, 0.1);_x000D_
+actor.getProperty().setShade(false);_x000D_
+actor.getProperty().setAmbient(0.3);_x000D_
+actor.getProperty().setDiffuse(1);_x000D_
+actor.getProperty().setSpecular(1);_x000D_
+_x000D_
+//assign mapper to actor and assign mapper to render_x000D_
+actor.setMapper(mapper);_x000D_
+renderer.addVolume(actor);_x000D_
+_x000D_
+const bounds = imageData.getBounds();_x000D_
+const center = [_x000D_
+(bounds[0] + bounds[1]) / 2,_x000D_
+(bounds[2] + bounds[3]) / 2,_x000D_
+(bounds[4] + bounds[5]) / 2,_x000D_
+];_x000D_
+_x000D_
+const camera = renderer.getActiveCamera();_x000D_
+camera.setFocalPoint(...center);_x000D_
+camera.setPosition(center[0], center[1], center[2] + 10); // Look along +Z_x000D_
+camera.setViewUp(0, 1, 0);_x000D_
+renderer.resetCameraClippingRange();_x000D_
+renderWindow.render();_x000D_
+renderer.resetCamera();_x000D_
+renderWindow.render();_x000D_
+});_x000D_
+});_x000D_
+_x000D_
+&lt;/script&gt;_x000D_
+&lt;/body&gt;_x000D_
+_x000D_
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct_generation </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,13 +670,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,155 +1009,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>task</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Benchmark prompt</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ground_truth</v>
-      </c>
-      <c r="D1" t="str">
-        <v>generator</v>
-      </c>
-      <c r="E1" t="str">
-        <v>evaluator</v>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>IO-Filter-Rendering\cutter\rotor</v>
-      </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Generate an HTML page using vtk.js to visualize the rotor dataset._x000d_
-_x000d_
-- Load the dataset from: http://127.0.0.1:5000/dataset/rotor.vti_x000d_
-- Set the active scalar array to "Pressure"._x000d_
-- Apply a slice along the Y axis at 95% depth of the dataset (convert percentage to slice index)._x000d_
-- Use a blue → white → red color map for pressure values, spanning from the minimum to maximum scalar range._x000d_
-- Set opacity to fully opaque (no transparency variation)._x000d_
-- Add an orientation marker with XYZ axes in the bottom-right corner._x000d_
-- No interactive GUI controls are required._x000d_
-</v>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;!DOCTYPE html&gt;_x000d_
-&lt;html lang="en"&gt;_x000d_
-_x000d_
-&lt;head&gt;_x000d_
-&lt;meta charset="UTF-8"&gt;_x000d_
-&lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;_x000d_
-&lt;title&gt;Rotor Dataset Cutting Rendering&lt;/title&gt;_x000d_
-&lt;style&gt;_x000d_
-body,_x000d_
-html {_x000d_
-margin: 0;_x000d_
-padding: 0;_x000d_
-width: 100%;_x000d_
-height: 100%;_x000d_
-overflow: hidden;_x000d_
-}_x000d_
-_x000d_
-#renderer {_x000d_
-width: 100%;_x000d_
-height: 100%;_x000d_
-}_x000d_
-&lt;/style&gt;_x000d_
-&lt;/head&gt;_x000d_
-_x000d_
-&lt;body&gt;_x000d_
-&lt;div id="renderer"&gt;&lt;/div&gt;_x000d_
-&lt;script src="https://unpkg.com/vtk.js@34.10.0/vtk.js"&gt;&lt;/script&gt;_x000d_
-&lt;script&gt;_x000d_
-const vtkFullScreenRenderWindow = vtk.Rendering.Misc.vtkFullScreenRenderWindow;_x000d_
-const vtkActor = vtk.Rendering.Core.vtkActor;_x000d_
-const vtkMapper = vtk.Rendering.Core.vtkMapper;_x000d_
-const vtkXMLImageDataReader = vtk.IO.XML.vtkXMLImageDataReader;_x000d_
-const vtkPlane = vtk.Common.DataModel.vtkPlane;_x000d_
-const vtkColorTransferFunction = vtk.Rendering.Core.vtkColorTransferFunction;_x000d_
-_x000d_
-const fullScreenRenderWindow = vtkFullScreenRenderWindow.newInstance({_x000d_
-background: [1, 1, 1],_x000d_
-});_x000d_
-const renderWindow = fullScreenRenderWindow.getRenderWindow();_x000d_
-const renderer = fullScreenRenderWindow.getRenderer();_x000d_
-_x000d_
-const reader = vtkXMLImageDataReader.newInstance();_x000d_
-reader.setUrl('http://127.0.0.1:5000/dataset/rotor_simplified.vti').then(() =&gt; {_x000d_
-reader.loadData().then(() =&gt; {_x000d_
-const imageData = reader.getOutputData(0);_x000d_
-imageData.getPointData().setActiveScalars('Pressure');_x000d_
-_x000d_
-const vtkImageSlice = vtk.Rendering.Core.vtkImageSlice;_x000d_
-const vtkImageMapper = vtk.Rendering.Core.vtkImageMapper;_x000d_
-_x000d_
-const imageMapper = vtkImageMapper.newInstance();_x000d_
-imageMapper.setInputData(imageData);_x000d_
-const dims = imageData.getDimensions();_x000d_
-imageMapper.setSlice(dims[1] * 0.95);_x000d_
-imageMapper.setSlicingMode(1); //(0:X, 1:Y, 2:Z)_x000d_
-_x000d_
-const pressureArray = imageData.getPointData().getArrayByName('Pressure');_x000d_
-const [pMin, pMax] = pressureArray.getRange();_x000d_
-const colorTransferFunction = vtkColorTransferFunction.newInstance();_x000d_
-colorTransferFunction.addRGBPoint(pMin, 0.0, 0.0, 0.8);_x000d_
-colorTransferFunction.addRGBPoint((pMin + pMax) / 2, 1.0, 1.0, 1.0);_x000d_
-colorTransferFunction.addRGBPoint(pMax, 0.8, 0.0, 0.0);_x000d_
-_x000d_
-// Add opacity transfer function_x000d_
-const vtkPiecewiseFunction = vtk.Common.DataModel.vtkPiecewiseFunction;_x000d_
-const opacityFunction = vtkPiecewiseFunction.newInstance();_x000d_
-opacityFunction.addPoint(pMin, 1.0);_x000d_
-opacityFunction.addPoint(pMax, 1.0);_x000d_
-_x000d_
-const imageSlice = vtkImageSlice.newInstance();_x000d_
-imageSlice.setMapper(imageMapper);_x000d_
-imageSlice.getProperty().setRGBTransferFunction(0, colorTransferFunction);_x000d_
-imageSlice.getProperty().setPiecewiseFunction(0, opacityFunction); // Set opacity function_x000d_
-imageSlice.getProperty().setScalarOpacity(0, opacityFunction); // Set scalar opacity_x000d_
-imageSlice.getProperty().setUseLookupTableScalarRange(true);_x000d_
-_x000d_
-renderer.addActor(imageSlice);_x000d_
-_x000d_
-const axes = vtk.Rendering.Core.vtkAxesActor.newInstance();_x000d_
-const widget = vtk.Interaction.Widgets.vtkOrientationMarkerWidget.newInstance({_x000d_
-actor: axes,_x000d_
-interactor: renderWindow.getInteractor(),_x000d_
-});_x000d_
-widget.setEnabled(true);_x000d_
-widget.setViewportCorner(_x000d_
-vtk.Interaction.Widgets.vtkOrientationMarkerWidget.Corners.BOTTOM_RIGHT_x000d_
-);_x000d_
-widget.setViewportSize(0.15);_x000d_
-_x000d_
-renderer.resetCamera();_x000d_
-renderer.resetCameraClippingRange();_x000d_
-renderWindow.render();_x000d_
-});_x000d_
-});_x000d_
-&lt;/script&gt;_x000d_
-&lt;/body&gt;_x000d_
-_x000d_
-&lt;/html&gt;</v>
-      </c>
-      <c r="D2" t="str">
-        <v>deepseek-v3</v>
-      </c>
-      <c r="E2" t="str">
-        <v>deepseek-v3</v>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError sqref="A1:E1 A5:E5 A2:E2 A3:E3 A4:E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>